--- a/data/pca/factorExposure/factorExposure_2019-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1279792264646329</v>
+        <v>0.07789038231938719</v>
       </c>
       <c r="C2">
-        <v>0.01533155923435397</v>
+        <v>-0.01823277840786277</v>
       </c>
       <c r="D2">
-        <v>-0.03775637572707546</v>
+        <v>-0.04137460450756476</v>
       </c>
       <c r="E2">
-        <v>0.09693630406456721</v>
+        <v>0.05369366327071079</v>
       </c>
       <c r="F2">
-        <v>0.09548986659526862</v>
+        <v>0.1295665195829347</v>
       </c>
       <c r="G2">
-        <v>-0.1254972391381881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0909099813910749</v>
+      </c>
+      <c r="H2">
+        <v>-0.08515489783383358</v>
+      </c>
+      <c r="I2">
+        <v>-0.02441490323221169</v>
+      </c>
+      <c r="J2">
+        <v>-0.04165909483351937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2130927547011083</v>
+        <v>0.1600051975803434</v>
       </c>
       <c r="C3">
-        <v>-0.09033435219138126</v>
+        <v>-0.08522717107144277</v>
       </c>
       <c r="D3">
-        <v>0.0237966294699284</v>
+        <v>0.03225189395265829</v>
       </c>
       <c r="E3">
-        <v>0.3264666636570319</v>
+        <v>0.08405337229249203</v>
       </c>
       <c r="F3">
-        <v>0.014646917602753</v>
+        <v>0.3698984333703563</v>
       </c>
       <c r="G3">
-        <v>-0.3532749674232161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01378393138343482</v>
+      </c>
+      <c r="H3">
+        <v>-0.2814673169439128</v>
+      </c>
+      <c r="I3">
+        <v>-0.1584858695991259</v>
+      </c>
+      <c r="J3">
+        <v>-0.3866223553387395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09801113903878965</v>
+        <v>0.07182353960191779</v>
       </c>
       <c r="C4">
-        <v>-0.02676629765954495</v>
+        <v>-0.03645580354652953</v>
       </c>
       <c r="D4">
-        <v>-0.01741719881712074</v>
+        <v>-0.02265463412388642</v>
       </c>
       <c r="E4">
-        <v>0.07683349029881852</v>
+        <v>-0.01164081401455508</v>
       </c>
       <c r="F4">
-        <v>0.04988990887486487</v>
+        <v>0.09532929647240899</v>
       </c>
       <c r="G4">
-        <v>-0.03331848485921213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03440007938557627</v>
+      </c>
+      <c r="H4">
+        <v>-0.03154520590321089</v>
+      </c>
+      <c r="I4">
+        <v>-0.02710742530135936</v>
+      </c>
+      <c r="J4">
+        <v>-0.0415823826160131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01418020629014607</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004178454047876442</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.000536446447860392</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005631336316737149</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002263274446060407</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01945449450703587</v>
+      </c>
+      <c r="H6">
+        <v>-0.001461274673039558</v>
+      </c>
+      <c r="I6">
+        <v>0.002664228950063326</v>
+      </c>
+      <c r="J6">
+        <v>0.001731038703494255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04148135547849075</v>
+        <v>0.03195845669966574</v>
       </c>
       <c r="C7">
-        <v>-0.004443960506710378</v>
+        <v>-0.01693552615783937</v>
       </c>
       <c r="D7">
-        <v>-0.03319738170764232</v>
+        <v>-0.01860713436676497</v>
       </c>
       <c r="E7">
-        <v>0.08154003792746582</v>
+        <v>0.00233000344605759</v>
       </c>
       <c r="F7">
-        <v>-0.03638965818342366</v>
+        <v>0.06355649232492851</v>
       </c>
       <c r="G7">
-        <v>-0.02083706008292814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01354103817384044</v>
+      </c>
+      <c r="H7">
+        <v>-0.05082486996548682</v>
+      </c>
+      <c r="I7">
+        <v>-0.001011040645567038</v>
+      </c>
+      <c r="J7">
+        <v>-0.01019846714824638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0424296906757848</v>
+        <v>0.03148564426295897</v>
       </c>
       <c r="C8">
-        <v>-0.03868483652481938</v>
+        <v>-0.03906427393473477</v>
       </c>
       <c r="D8">
-        <v>0.0008754755844091909</v>
+        <v>-0.00581928414167912</v>
       </c>
       <c r="E8">
-        <v>0.07098659114976123</v>
+        <v>-0.00483335493839623</v>
       </c>
       <c r="F8">
-        <v>-0.0006969804454931066</v>
+        <v>0.08566172482777548</v>
       </c>
       <c r="G8">
-        <v>-0.05268436868171648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.001220695143306232</v>
+      </c>
+      <c r="H8">
+        <v>-0.0539315343113141</v>
+      </c>
+      <c r="I8">
+        <v>-0.02893034221542078</v>
+      </c>
+      <c r="J8">
+        <v>-0.03773924049672094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08500645863261518</v>
+        <v>0.06060720814405186</v>
       </c>
       <c r="C9">
-        <v>-0.02904071027573582</v>
+        <v>-0.03639174873078891</v>
       </c>
       <c r="D9">
-        <v>-0.02747662497263494</v>
+        <v>-0.02344887372176736</v>
       </c>
       <c r="E9">
-        <v>0.06875300909774688</v>
+        <v>-0.0145610537310666</v>
       </c>
       <c r="F9">
-        <v>0.03056263812824183</v>
+        <v>0.09633969329534472</v>
       </c>
       <c r="G9">
-        <v>-0.03531441461577948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02611802997783744</v>
+      </c>
+      <c r="H9">
+        <v>-0.02865207335875269</v>
+      </c>
+      <c r="I9">
+        <v>-0.006830518727351274</v>
+      </c>
+      <c r="J9">
+        <v>-0.005812889157815748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.008368231874842331</v>
+        <v>0.01446397849007832</v>
       </c>
       <c r="C10">
-        <v>0.159388709012813</v>
+        <v>0.1586810058689077</v>
       </c>
       <c r="D10">
-        <v>0.005692928913249745</v>
+        <v>0.01121335764071026</v>
       </c>
       <c r="E10">
-        <v>0.05466708966568008</v>
+        <v>0.03309824872944826</v>
       </c>
       <c r="F10">
-        <v>0.01084940701482205</v>
+        <v>0.05232392752296007</v>
       </c>
       <c r="G10">
-        <v>0.003752635752600274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02122035689534201</v>
+      </c>
+      <c r="H10">
+        <v>0.006013077008466748</v>
+      </c>
+      <c r="I10">
+        <v>-0.121134855114221</v>
+      </c>
+      <c r="J10">
+        <v>-0.006719513841634825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05694986707760853</v>
+        <v>0.0478601013471051</v>
       </c>
       <c r="C11">
-        <v>-0.00498805030208191</v>
+        <v>-0.0223275819653086</v>
       </c>
       <c r="D11">
-        <v>0.009348076709594293</v>
+        <v>-0.005663036447198678</v>
       </c>
       <c r="E11">
-        <v>0.04175010460406672</v>
+        <v>0.01988260043179693</v>
       </c>
       <c r="F11">
-        <v>0.006125399556465618</v>
+        <v>0.0425768482876779</v>
       </c>
       <c r="G11">
-        <v>0.01949881441738132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002171415036700435</v>
+      </c>
+      <c r="H11">
+        <v>-0.01375634345085456</v>
+      </c>
+      <c r="I11">
+        <v>0.01768888824086532</v>
+      </c>
+      <c r="J11">
+        <v>-0.01019905121021229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04255045963700241</v>
+        <v>0.0435447841687276</v>
       </c>
       <c r="C12">
-        <v>-0.01141173764726444</v>
+        <v>-0.02304482944403772</v>
       </c>
       <c r="D12">
-        <v>0.006280343951108939</v>
+        <v>-0.005681663561224307</v>
       </c>
       <c r="E12">
-        <v>0.03434314858940134</v>
+        <v>0.004076547529019993</v>
       </c>
       <c r="F12">
-        <v>0.002298519913020992</v>
+        <v>0.02570970359874726</v>
       </c>
       <c r="G12">
-        <v>0.001240179333263333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004171377663901345</v>
+      </c>
+      <c r="H12">
+        <v>-0.01119026785800841</v>
+      </c>
+      <c r="I12">
+        <v>0.01737831118412043</v>
+      </c>
+      <c r="J12">
+        <v>-0.003298142972508477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05948319641276959</v>
+        <v>0.03999219167180317</v>
       </c>
       <c r="C13">
-        <v>-0.01680707998788213</v>
+        <v>-0.02230350708096032</v>
       </c>
       <c r="D13">
-        <v>0.00991673466453376</v>
+        <v>-0.007903790719181009</v>
       </c>
       <c r="E13">
-        <v>0.1113330948781114</v>
+        <v>0.03982030464844929</v>
       </c>
       <c r="F13">
-        <v>0.01971437053059948</v>
+        <v>0.09813599103401228</v>
       </c>
       <c r="G13">
-        <v>-0.04974838879378631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.007379185123369032</v>
+      </c>
+      <c r="H13">
+        <v>-0.05976419239218719</v>
+      </c>
+      <c r="I13">
+        <v>-0.009501327306130885</v>
+      </c>
+      <c r="J13">
+        <v>-0.03053520956272134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03820456079920514</v>
+        <v>0.02791282198429372</v>
       </c>
       <c r="C14">
-        <v>-0.009238113510938726</v>
+        <v>-0.01618900322932591</v>
       </c>
       <c r="D14">
-        <v>-0.02031411423437477</v>
+        <v>-0.02207882404451149</v>
       </c>
       <c r="E14">
-        <v>0.02213914378076132</v>
+        <v>-0.0007426003350357856</v>
       </c>
       <c r="F14">
-        <v>-0.004341186793377744</v>
+        <v>0.04042599150987791</v>
       </c>
       <c r="G14">
-        <v>-0.03890088130101932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0129052862934692</v>
+      </c>
+      <c r="H14">
+        <v>-0.05810178080591205</v>
+      </c>
+      <c r="I14">
+        <v>-0.01608339687694515</v>
+      </c>
+      <c r="J14">
+        <v>0.009956844809965169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.0473683704469787</v>
+        <v>0.04182362762929343</v>
       </c>
       <c r="C16">
-        <v>-0.02143092580882654</v>
+        <v>-0.03083220596059495</v>
       </c>
       <c r="D16">
-        <v>0.01727486083285427</v>
+        <v>-0.0001962544976205076</v>
       </c>
       <c r="E16">
-        <v>0.03933109144461106</v>
+        <v>0.01510930150789399</v>
       </c>
       <c r="F16">
-        <v>0.0008275032134459767</v>
+        <v>0.03660213666109772</v>
       </c>
       <c r="G16">
-        <v>0.01422839534975725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.009337814707264209</v>
+      </c>
+      <c r="H16">
+        <v>-0.01623412437611105</v>
+      </c>
+      <c r="I16">
+        <v>0.01457797991655758</v>
+      </c>
+      <c r="J16">
+        <v>-0.007926181186817847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05018005828282601</v>
+        <v>0.04331284292427432</v>
       </c>
       <c r="C19">
-        <v>-0.02691902083983599</v>
+        <v>-0.03413907246984307</v>
       </c>
       <c r="D19">
-        <v>-0.0001011677281967532</v>
+        <v>-0.008611657778204714</v>
       </c>
       <c r="E19">
-        <v>0.07848383823515112</v>
+        <v>0.01965274841189412</v>
       </c>
       <c r="F19">
-        <v>-0.006676037848453176</v>
+        <v>0.08968327368484774</v>
       </c>
       <c r="G19">
-        <v>-0.0703425423595645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.00495554513766292</v>
+      </c>
+      <c r="H19">
+        <v>-0.08556207249290637</v>
+      </c>
+      <c r="I19">
+        <v>-0.03663445607705143</v>
+      </c>
+      <c r="J19">
+        <v>-0.02256285515304884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03691054743549152</v>
+        <v>0.01723006420515969</v>
       </c>
       <c r="C20">
-        <v>-0.03494066886186527</v>
+        <v>-0.03272660598688203</v>
       </c>
       <c r="D20">
-        <v>-0.01220682104689351</v>
+        <v>-0.01451678493202755</v>
       </c>
       <c r="E20">
-        <v>0.06745299964601498</v>
+        <v>0.003889093242922902</v>
       </c>
       <c r="F20">
-        <v>-0.01529788694091479</v>
+        <v>0.07438764279102381</v>
       </c>
       <c r="G20">
-        <v>-0.04276328956652006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01072593643966936</v>
+      </c>
+      <c r="H20">
+        <v>-0.07466095859836729</v>
+      </c>
+      <c r="I20">
+        <v>-0.0142846615481123</v>
+      </c>
+      <c r="J20">
+        <v>-0.04894437701909109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03778405614669699</v>
+        <v>0.01836872065952038</v>
       </c>
       <c r="C21">
-        <v>-0.01629772867400149</v>
+        <v>-0.0255020057749605</v>
       </c>
       <c r="D21">
-        <v>0.001495069718544202</v>
+        <v>0.003494259319110518</v>
       </c>
       <c r="E21">
-        <v>0.0882277474277325</v>
+        <v>0.006095816176747212</v>
       </c>
       <c r="F21">
-        <v>0.04571520542064071</v>
+        <v>0.08038886713092924</v>
       </c>
       <c r="G21">
-        <v>-0.0440908282654266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02086903464734615</v>
+      </c>
+      <c r="H21">
+        <v>-0.04031322767167882</v>
+      </c>
+      <c r="I21">
+        <v>0.004870589913277669</v>
+      </c>
+      <c r="J21">
+        <v>0.0161135741555938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04782309951901861</v>
+        <v>0.04063669589155443</v>
       </c>
       <c r="C24">
-        <v>-0.01341705135470271</v>
+        <v>-0.01997816796136536</v>
       </c>
       <c r="D24">
-        <v>0.004718657676490474</v>
+        <v>-0.005236576680093034</v>
       </c>
       <c r="E24">
-        <v>0.04937816099508292</v>
+        <v>0.01345591131148242</v>
       </c>
       <c r="F24">
-        <v>0.002830565260416347</v>
+        <v>0.04496807126306673</v>
       </c>
       <c r="G24">
-        <v>0.009000021963897986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009729629764979217</v>
+      </c>
+      <c r="H24">
+        <v>-0.01447761843803176</v>
+      </c>
+      <c r="I24">
+        <v>0.01453899133653206</v>
+      </c>
+      <c r="J24">
+        <v>-0.01824190877153687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04788320140940029</v>
+        <v>0.04155735701292183</v>
       </c>
       <c r="C25">
-        <v>-0.003919179915923635</v>
+        <v>-0.02019294234700356</v>
       </c>
       <c r="D25">
-        <v>0.006435786157308944</v>
+        <v>-0.00327377823529859</v>
       </c>
       <c r="E25">
-        <v>0.04596019328095297</v>
+        <v>0.01560740981854566</v>
       </c>
       <c r="F25">
-        <v>0.009577918190322238</v>
+        <v>0.04731996057343228</v>
       </c>
       <c r="G25">
-        <v>0.01119073089425748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00253294481092392</v>
+      </c>
+      <c r="H25">
+        <v>-0.009901871094437272</v>
+      </c>
+      <c r="I25">
+        <v>0.01592106442849636</v>
+      </c>
+      <c r="J25">
+        <v>-0.008184374067002752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005891452533388426</v>
+        <v>0.01159513165342403</v>
       </c>
       <c r="C26">
-        <v>-0.01696137164059421</v>
+        <v>-0.01736048618131813</v>
       </c>
       <c r="D26">
-        <v>-0.004243185813104866</v>
+        <v>0.001106263790819948</v>
       </c>
       <c r="E26">
-        <v>0.05014612395418876</v>
+        <v>0.02410082465829809</v>
       </c>
       <c r="F26">
-        <v>0.01657353174945418</v>
+        <v>0.0491424393484242</v>
       </c>
       <c r="G26">
-        <v>-0.01295132550570256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0074942895882073</v>
+      </c>
+      <c r="H26">
+        <v>-0.03770383558700308</v>
+      </c>
+      <c r="I26">
+        <v>0.005893520781559471</v>
+      </c>
+      <c r="J26">
+        <v>-0.01232169419342725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1110236550767952</v>
+        <v>0.08468998543826446</v>
       </c>
       <c r="C27">
-        <v>-0.01720612992747406</v>
+        <v>-0.02744643977471809</v>
       </c>
       <c r="D27">
-        <v>-0.020312517102504</v>
+        <v>-0.02912799587724252</v>
       </c>
       <c r="E27">
-        <v>0.1123359609529311</v>
+        <v>0.003530648207545979</v>
       </c>
       <c r="F27">
-        <v>0.02123089463615833</v>
+        <v>0.08830962966266667</v>
       </c>
       <c r="G27">
-        <v>0.003534262558007561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.005519988387849484</v>
+      </c>
+      <c r="H27">
+        <v>-0.00973244205736613</v>
+      </c>
+      <c r="I27">
+        <v>-0.008329509485496522</v>
+      </c>
+      <c r="J27">
+        <v>-0.02726512276326611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.008335355142744872</v>
+        <v>0.02943666994303351</v>
       </c>
       <c r="C28">
-        <v>0.2416728381226309</v>
+        <v>0.2334246629516447</v>
       </c>
       <c r="D28">
-        <v>0.01175460111710588</v>
+        <v>0.01730053902329609</v>
       </c>
       <c r="E28">
-        <v>0.02970326964374299</v>
+        <v>0.02606116304674377</v>
       </c>
       <c r="F28">
-        <v>0.01312800744136975</v>
+        <v>0.04007716313996591</v>
       </c>
       <c r="G28">
-        <v>0.01634697670073256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02641724477161163</v>
+      </c>
+      <c r="H28">
+        <v>0.02575069734804501</v>
+      </c>
+      <c r="I28">
+        <v>-0.1695509082598241</v>
+      </c>
+      <c r="J28">
+        <v>-0.01913929418019175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01851303568002768</v>
+        <v>0.01828310881703715</v>
       </c>
       <c r="C29">
-        <v>-0.01730718237125831</v>
+        <v>-0.01818353332793632</v>
       </c>
       <c r="D29">
-        <v>-0.02329624667529725</v>
+        <v>-0.02032285933932154</v>
       </c>
       <c r="E29">
-        <v>0.02882741894273181</v>
+        <v>-0.007583611796585291</v>
       </c>
       <c r="F29">
-        <v>0.007024414962917369</v>
+        <v>0.04150467864840707</v>
       </c>
       <c r="G29">
-        <v>-0.03955204842736623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01354735273997609</v>
+      </c>
+      <c r="H29">
+        <v>-0.05738833127454446</v>
+      </c>
+      <c r="I29">
+        <v>-0.007274316267978793</v>
+      </c>
+      <c r="J29">
+        <v>0.02723945813392863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1046149883748661</v>
+        <v>0.09781687438744049</v>
       </c>
       <c r="C30">
-        <v>-0.009763762548014627</v>
+        <v>-0.03622494120445142</v>
       </c>
       <c r="D30">
-        <v>-0.01695816172528276</v>
+        <v>-0.03200445132086743</v>
       </c>
       <c r="E30">
-        <v>0.1253612776391729</v>
+        <v>0.03965114320233347</v>
       </c>
       <c r="F30">
-        <v>0.03238597995424176</v>
+        <v>0.1101476781351879</v>
       </c>
       <c r="G30">
-        <v>0.07038914205248198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009305510711463657</v>
+      </c>
+      <c r="H30">
+        <v>-0.01096020273681009</v>
+      </c>
+      <c r="I30">
+        <v>0.02777753358203665</v>
+      </c>
+      <c r="J30">
+        <v>0.004016677674803782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05720553628760727</v>
+        <v>0.05923797519996018</v>
       </c>
       <c r="C31">
-        <v>-0.01348256388092481</v>
+        <v>-0.0203806836445457</v>
       </c>
       <c r="D31">
-        <v>-0.01437222396181544</v>
+        <v>-0.01947158782470573</v>
       </c>
       <c r="E31">
-        <v>-0.0191311527730817</v>
+        <v>0.01359465323687021</v>
       </c>
       <c r="F31">
-        <v>0.007746464548810858</v>
+        <v>0.00303558300192765</v>
       </c>
       <c r="G31">
-        <v>-0.005930378107210526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03367082329533169</v>
+      </c>
+      <c r="H31">
+        <v>-0.04737804329010842</v>
+      </c>
+      <c r="I31">
+        <v>-0.01089931925306416</v>
+      </c>
+      <c r="J31">
+        <v>0.02166402227515867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07007493261376185</v>
+        <v>0.04669568815056765</v>
       </c>
       <c r="C32">
-        <v>-0.02666496089649199</v>
+        <v>-0.04598624794480734</v>
       </c>
       <c r="D32">
-        <v>-0.01202200960159053</v>
+        <v>-0.02159634355351232</v>
       </c>
       <c r="E32">
-        <v>0.1159460559290774</v>
+        <v>0.00441793458440592</v>
       </c>
       <c r="F32">
-        <v>-0.00457558730077666</v>
+        <v>0.1025681246973333</v>
       </c>
       <c r="G32">
-        <v>-0.03199958411283071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.00396559908932603</v>
+      </c>
+      <c r="H32">
+        <v>-0.045506521027979</v>
+      </c>
+      <c r="I32">
+        <v>-0.02159908285475782</v>
+      </c>
+      <c r="J32">
+        <v>0.008525209040036142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06902510447520971</v>
+        <v>0.05743352997265109</v>
       </c>
       <c r="C33">
-        <v>-0.03196540880678626</v>
+        <v>-0.04718370836557251</v>
       </c>
       <c r="D33">
-        <v>-0.007556940436114503</v>
+        <v>-0.006519216305015385</v>
       </c>
       <c r="E33">
-        <v>0.07257344495491973</v>
+        <v>0.02992530084170092</v>
       </c>
       <c r="F33">
-        <v>0.04206218844652398</v>
+        <v>0.07967384014413505</v>
       </c>
       <c r="G33">
-        <v>-0.02179536628790314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0174603911214597</v>
+      </c>
+      <c r="H33">
+        <v>-0.050302284927315</v>
+      </c>
+      <c r="I33">
+        <v>0.01480939128841658</v>
+      </c>
+      <c r="J33">
+        <v>-0.01154314096889443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04687597104721823</v>
+        <v>0.04086888631046088</v>
       </c>
       <c r="C34">
-        <v>-0.01392658490616117</v>
+        <v>-0.0265690494488976</v>
       </c>
       <c r="D34">
-        <v>0.006103823154905138</v>
+        <v>-0.008970162887648221</v>
       </c>
       <c r="E34">
-        <v>0.0269123913305664</v>
+        <v>0.01070986082477563</v>
       </c>
       <c r="F34">
-        <v>-0.002784262128417536</v>
+        <v>0.03641363240771608</v>
       </c>
       <c r="G34">
-        <v>-0.002580501801727583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001041383512561573</v>
+      </c>
+      <c r="H34">
+        <v>-0.02068812480594362</v>
+      </c>
+      <c r="I34">
+        <v>0.01397821911071134</v>
+      </c>
+      <c r="J34">
+        <v>-0.001314221728934917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01220916199829231</v>
+        <v>0.01382489421286064</v>
       </c>
       <c r="C36">
-        <v>0.01020551438734693</v>
+        <v>-0.0009018516603035899</v>
       </c>
       <c r="D36">
-        <v>-0.006080076852292792</v>
+        <v>-0.007320369377958241</v>
       </c>
       <c r="E36">
-        <v>0.0232682038316487</v>
+        <v>0.00274923035281258</v>
       </c>
       <c r="F36">
-        <v>0.007767185481803007</v>
+        <v>0.03043591471154181</v>
       </c>
       <c r="G36">
-        <v>-0.01269019181480074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01398545378704928</v>
+      </c>
+      <c r="H36">
+        <v>-0.03349552889573328</v>
+      </c>
+      <c r="I36">
+        <v>-0.002934186115256036</v>
+      </c>
+      <c r="J36">
+        <v>0.02208146680751864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05742022449009193</v>
+        <v>0.03153865653987772</v>
       </c>
       <c r="C38">
-        <v>-0.006203537083840408</v>
+        <v>-0.01068069743913073</v>
       </c>
       <c r="D38">
-        <v>-0.02425668884227427</v>
+        <v>-0.008126393555259064</v>
       </c>
       <c r="E38">
-        <v>0.03362272228592896</v>
+        <v>0.008271898855634242</v>
       </c>
       <c r="F38">
-        <v>0.01271242362693045</v>
+        <v>0.0519330158277407</v>
       </c>
       <c r="G38">
-        <v>-0.04282551761549704</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02436144389558898</v>
+      </c>
+      <c r="H38">
+        <v>-0.01930449496344628</v>
+      </c>
+      <c r="I38">
+        <v>0.001608729297462769</v>
+      </c>
+      <c r="J38">
+        <v>0.02792516181594948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07433184181840485</v>
+        <v>0.05716850326865541</v>
       </c>
       <c r="C39">
-        <v>-0.01297642111500579</v>
+        <v>-0.03571350155604602</v>
       </c>
       <c r="D39">
-        <v>0.0003465559576536508</v>
+        <v>-0.01603719934972211</v>
       </c>
       <c r="E39">
-        <v>0.04904549249416494</v>
+        <v>0.02584943808104846</v>
       </c>
       <c r="F39">
-        <v>0.02262701127640057</v>
+        <v>0.05779404314653501</v>
       </c>
       <c r="G39">
-        <v>0.008488929433618644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009525695974879343</v>
+      </c>
+      <c r="H39">
+        <v>-0.01619177944381285</v>
+      </c>
+      <c r="I39">
+        <v>0.03384470961794518</v>
+      </c>
+      <c r="J39">
+        <v>-0.003884389221195426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07080496724945225</v>
+        <v>0.05560663089870758</v>
       </c>
       <c r="C40">
-        <v>-0.02786913155712973</v>
+        <v>-0.03467548208351924</v>
       </c>
       <c r="D40">
-        <v>-0.003293119799507819</v>
+        <v>-0.02473719964133178</v>
       </c>
       <c r="E40">
-        <v>0.1140005210704534</v>
+        <v>0.04657296400100591</v>
       </c>
       <c r="F40">
-        <v>0.03516577510309549</v>
+        <v>0.1022125545118885</v>
       </c>
       <c r="G40">
-        <v>-0.09580885875310902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0003289843354403305</v>
+      </c>
+      <c r="H40">
+        <v>-0.08054259967441038</v>
+      </c>
+      <c r="I40">
+        <v>-0.004382692264381811</v>
+      </c>
+      <c r="J40">
+        <v>-0.05491589025776133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003906421892443171</v>
+        <v>0.001001191007093211</v>
       </c>
       <c r="C41">
-        <v>-0.01246335477318337</v>
+        <v>-0.01159847386718663</v>
       </c>
       <c r="D41">
-        <v>-0.01743162523074777</v>
+        <v>-0.004953319265399177</v>
       </c>
       <c r="E41">
-        <v>0.011801237652876</v>
+        <v>0.0007401839277590992</v>
       </c>
       <c r="F41">
-        <v>0.02314345165325253</v>
+        <v>0.01793989532318691</v>
       </c>
       <c r="G41">
-        <v>-0.02600285231667614</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02671503333074799</v>
+      </c>
+      <c r="H41">
+        <v>-0.04044645653005886</v>
+      </c>
+      <c r="I41">
+        <v>-0.02392096123160178</v>
+      </c>
+      <c r="J41">
+        <v>0.007303678528514199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.131012906995067</v>
+        <v>0.2372192680125659</v>
       </c>
       <c r="C42">
-        <v>-0.1714105606809004</v>
+        <v>-0.1404019087273948</v>
       </c>
       <c r="D42">
-        <v>0.9362904386296402</v>
+        <v>0.9013244070597479</v>
       </c>
       <c r="E42">
-        <v>-0.0223862214742675</v>
+        <v>0.1911644214179825</v>
       </c>
       <c r="F42">
-        <v>-0.01106420153496735</v>
+        <v>-0.2089921885123332</v>
       </c>
       <c r="G42">
-        <v>0.1288615737103282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003520761455041769</v>
+      </c>
+      <c r="H42">
+        <v>0.0004454525553115354</v>
+      </c>
+      <c r="I42">
+        <v>-0.05276775510311467</v>
+      </c>
+      <c r="J42">
+        <v>-0.002303825769542571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008236583318676981</v>
+        <v>0.003440960203558008</v>
       </c>
       <c r="C43">
-        <v>-0.01500436069489343</v>
+        <v>-0.01390813353696254</v>
       </c>
       <c r="D43">
-        <v>-0.01690965201889762</v>
+        <v>-0.006344883796033362</v>
       </c>
       <c r="E43">
-        <v>0.0317884805988756</v>
+        <v>0.0061766546370066</v>
       </c>
       <c r="F43">
-        <v>-0.001013120852691181</v>
+        <v>0.0295168500117493</v>
       </c>
       <c r="G43">
-        <v>-0.01833994732067314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009135146773345353</v>
+      </c>
+      <c r="H43">
+        <v>-0.03815139531296198</v>
+      </c>
+      <c r="I43">
+        <v>-0.01514204372290305</v>
+      </c>
+      <c r="J43">
+        <v>-0.000470744561231526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03783721490944676</v>
+        <v>0.02525619880247434</v>
       </c>
       <c r="C44">
-        <v>-0.03598906450671699</v>
+        <v>-0.03138894936991539</v>
       </c>
       <c r="D44">
-        <v>-0.008704424176478258</v>
+        <v>-0.002346344013187098</v>
       </c>
       <c r="E44">
-        <v>0.113189241262443</v>
+        <v>0.02710705598277413</v>
       </c>
       <c r="F44">
-        <v>0.07384621042016234</v>
+        <v>0.1209225790901422</v>
       </c>
       <c r="G44">
-        <v>-0.1288150458680876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03154792068735245</v>
+      </c>
+      <c r="H44">
+        <v>-0.1205202246824311</v>
+      </c>
+      <c r="I44">
+        <v>-0.02469972246188848</v>
+      </c>
+      <c r="J44">
+        <v>-0.01145709154581933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02186523683937878</v>
+        <v>0.02111206998507404</v>
       </c>
       <c r="C46">
-        <v>-0.01359248924847569</v>
+        <v>-0.02546616642228815</v>
       </c>
       <c r="D46">
-        <v>-0.02191644528099108</v>
+        <v>-0.01868972509402211</v>
       </c>
       <c r="E46">
-        <v>0.02114892971795481</v>
+        <v>0.007252766141323952</v>
       </c>
       <c r="F46">
-        <v>0.01952451366246465</v>
+        <v>0.04745114127532157</v>
       </c>
       <c r="G46">
-        <v>-0.03960460562669711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01472126477620574</v>
+      </c>
+      <c r="H46">
+        <v>-0.06239615301780771</v>
+      </c>
+      <c r="I46">
+        <v>-0.01440149441892578</v>
+      </c>
+      <c r="J46">
+        <v>0.00358531843814362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08214009313768331</v>
+        <v>0.08874340741168918</v>
       </c>
       <c r="C47">
-        <v>-0.009989639180224733</v>
+        <v>-0.01985040639599141</v>
       </c>
       <c r="D47">
-        <v>-0.01830526545518319</v>
+        <v>-0.0240299343910356</v>
       </c>
       <c r="E47">
-        <v>-0.02383859170683649</v>
+        <v>-0.002424237232013017</v>
       </c>
       <c r="F47">
-        <v>0.001348184829808259</v>
+        <v>-0.002326087564575897</v>
       </c>
       <c r="G47">
-        <v>-0.0262720073714116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03033465529420042</v>
+      </c>
+      <c r="H47">
+        <v>-0.06369625921062157</v>
+      </c>
+      <c r="I47">
+        <v>-0.01943761465876003</v>
+      </c>
+      <c r="J47">
+        <v>0.008906889477696507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01519282936514453</v>
+        <v>0.01600814964062739</v>
       </c>
       <c r="C48">
-        <v>-0.01690978404281491</v>
+        <v>-0.01932839705979201</v>
       </c>
       <c r="D48">
-        <v>-0.0149342680346556</v>
+        <v>-0.008145822891141602</v>
       </c>
       <c r="E48">
-        <v>0.03494942847223503</v>
+        <v>0.0009810598700456107</v>
       </c>
       <c r="F48">
-        <v>0.0149103712665338</v>
+        <v>0.03725805025917406</v>
       </c>
       <c r="G48">
-        <v>-0.01023888784450129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.007191118578106661</v>
+      </c>
+      <c r="H48">
+        <v>-0.02448620230470199</v>
+      </c>
+      <c r="I48">
+        <v>-0.01279222526935726</v>
+      </c>
+      <c r="J48">
+        <v>0.00475445833510131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08363720661974214</v>
+        <v>0.08485576266219771</v>
       </c>
       <c r="C50">
-        <v>-0.02703286115927677</v>
+        <v>-0.03460960922834744</v>
       </c>
       <c r="D50">
-        <v>-0.02514010050847518</v>
+        <v>-0.01822185102410529</v>
       </c>
       <c r="E50">
-        <v>-0.02357993902927351</v>
+        <v>-0.004346360841960754</v>
       </c>
       <c r="F50">
-        <v>0.0005322943121269013</v>
+        <v>0.003535883817592048</v>
       </c>
       <c r="G50">
-        <v>-0.007784879127639136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0007013935662383116</v>
+      </c>
+      <c r="H50">
+        <v>-0.04915809824416931</v>
+      </c>
+      <c r="I50">
+        <v>0.0007913744283313232</v>
+      </c>
+      <c r="J50">
+        <v>0.05016412761340752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07017306392147887</v>
+        <v>0.04692743935841237</v>
       </c>
       <c r="C51">
-        <v>0.02301570979401056</v>
+        <v>0.004988063326112918</v>
       </c>
       <c r="D51">
-        <v>0.003381576117398105</v>
+        <v>-0.01177953253476415</v>
       </c>
       <c r="E51">
-        <v>0.07627182675701576</v>
+        <v>0.04468201168758593</v>
       </c>
       <c r="F51">
-        <v>0.05051234706740428</v>
+        <v>0.08672993413654266</v>
       </c>
       <c r="G51">
-        <v>-0.01993590332238217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04404102130683485</v>
+      </c>
+      <c r="H51">
+        <v>-0.0659769242122805</v>
+      </c>
+      <c r="I51">
+        <v>-0.03421847081271473</v>
+      </c>
+      <c r="J51">
+        <v>0.01112209922144321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1450354309484548</v>
+        <v>0.1278926028646132</v>
       </c>
       <c r="C53">
-        <v>-0.01339242929559089</v>
+        <v>-0.03783871074837654</v>
       </c>
       <c r="D53">
-        <v>-0.04302604158511027</v>
+        <v>-0.04652565911556979</v>
       </c>
       <c r="E53">
-        <v>-0.03807675501846754</v>
+        <v>-0.01373776892487808</v>
       </c>
       <c r="F53">
-        <v>-0.01056783004050573</v>
+        <v>-0.02853184041071518</v>
       </c>
       <c r="G53">
-        <v>0.006128453618717894</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02302721791881651</v>
+      </c>
+      <c r="H53">
+        <v>-0.003729877122352543</v>
+      </c>
+      <c r="I53">
+        <v>-0.0320532585034441</v>
+      </c>
+      <c r="J53">
+        <v>-0.02979026916869035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02493378173024065</v>
+        <v>0.02065948892082137</v>
       </c>
       <c r="C54">
-        <v>0.005112810248708368</v>
+        <v>-0.006852393819116618</v>
       </c>
       <c r="D54">
-        <v>-0.02771724507947652</v>
+        <v>-0.02367831840889851</v>
       </c>
       <c r="E54">
-        <v>0.03015630091707478</v>
+        <v>-0.004559722664419182</v>
       </c>
       <c r="F54">
-        <v>0.03877430782997426</v>
+        <v>0.04548887542159638</v>
       </c>
       <c r="G54">
-        <v>-0.05286817770075962</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03333604472796186</v>
+      </c>
+      <c r="H54">
+        <v>-0.05498649919171062</v>
+      </c>
+      <c r="I54">
+        <v>-0.03295846456730786</v>
+      </c>
+      <c r="J54">
+        <v>0.03019843816547025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09712998960156004</v>
+        <v>0.1010392894537393</v>
       </c>
       <c r="C55">
-        <v>0.001297483698237018</v>
+        <v>-0.02075896876107521</v>
       </c>
       <c r="D55">
-        <v>-0.03859749355409881</v>
+        <v>-0.02854489626142123</v>
       </c>
       <c r="E55">
-        <v>-0.003885988364586057</v>
+        <v>-0.03642330463840377</v>
       </c>
       <c r="F55">
-        <v>-0.02740826202081592</v>
+        <v>-0.01059890635768127</v>
       </c>
       <c r="G55">
-        <v>0.007766836998005255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01124054730577725</v>
+      </c>
+      <c r="H55">
+        <v>-0.01917899149054305</v>
+      </c>
+      <c r="I55">
+        <v>-0.01232375871190286</v>
+      </c>
+      <c r="J55">
+        <v>-0.0192541817686095</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1786719104283882</v>
+        <v>0.1685349360164825</v>
       </c>
       <c r="C56">
-        <v>0.01451433070036832</v>
+        <v>-0.01807297834353791</v>
       </c>
       <c r="D56">
-        <v>-0.07599960397243487</v>
+        <v>-0.08331333678979409</v>
       </c>
       <c r="E56">
-        <v>-0.07282746612869315</v>
+        <v>-0.04718448991511085</v>
       </c>
       <c r="F56">
-        <v>-0.06502985352754637</v>
+        <v>-0.06268350495067472</v>
       </c>
       <c r="G56">
-        <v>0.02272319014109445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01968193015241157</v>
+      </c>
+      <c r="H56">
+        <v>0.03829759306254798</v>
+      </c>
+      <c r="I56">
+        <v>-0.0004805508659294418</v>
+      </c>
+      <c r="J56">
+        <v>-0.05750089289111335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08870400158048777</v>
+        <v>0.0680299838237923</v>
       </c>
       <c r="C57">
-        <v>-0.02376487166153748</v>
+        <v>-0.02860395237459584</v>
       </c>
       <c r="D57">
-        <v>-0.02147825638146926</v>
+        <v>-0.01369070396219629</v>
       </c>
       <c r="E57">
-        <v>0.06350972098889252</v>
+        <v>0.02696870889427157</v>
       </c>
       <c r="F57">
-        <v>0.01766461758246771</v>
+        <v>0.06620851194616435</v>
       </c>
       <c r="G57">
-        <v>-0.04660078604363049</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005946539406023719</v>
+      </c>
+      <c r="H57">
+        <v>-0.04341247053905722</v>
+      </c>
+      <c r="I57">
+        <v>0.009878336120232489</v>
+      </c>
+      <c r="J57">
+        <v>-0.03822682528215927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1633817192952123</v>
+        <v>0.1980288138466788</v>
       </c>
       <c r="C58">
-        <v>0.003709546328917521</v>
+        <v>-0.04622117479509567</v>
       </c>
       <c r="D58">
-        <v>0.04627020241315754</v>
+        <v>0.01023468005990791</v>
       </c>
       <c r="E58">
-        <v>0.1435274394081096</v>
+        <v>0.07690732058442842</v>
       </c>
       <c r="F58">
-        <v>-0.07241708431128649</v>
+        <v>0.181057723862267</v>
       </c>
       <c r="G58">
-        <v>-0.271086130268993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1741672341593326</v>
+      </c>
+      <c r="H58">
+        <v>-0.3177907492427712</v>
+      </c>
+      <c r="I58">
+        <v>-0.01698329801244979</v>
+      </c>
+      <c r="J58">
+        <v>0.6756251160945971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.005272944396350541</v>
+        <v>0.03307178812748172</v>
       </c>
       <c r="C59">
-        <v>0.2036546953810223</v>
+        <v>0.1979807982357896</v>
       </c>
       <c r="D59">
-        <v>-0.01577764313053536</v>
+        <v>-0.01764012859358379</v>
       </c>
       <c r="E59">
-        <v>0.04752580825356529</v>
+        <v>0.04359941197699237</v>
       </c>
       <c r="F59">
-        <v>0.01079761999883111</v>
+        <v>0.04907393813441337</v>
       </c>
       <c r="G59">
-        <v>0.0172504009408186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004651184328633804</v>
+      </c>
+      <c r="H59">
+        <v>0.02137487893554251</v>
+      </c>
+      <c r="I59">
+        <v>-0.07354090692295841</v>
+      </c>
+      <c r="J59">
+        <v>0.0327742668834476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.18740327040324</v>
+        <v>0.1830657989516721</v>
       </c>
       <c r="C60">
-        <v>0.1148473861603074</v>
+        <v>0.05564119970358559</v>
       </c>
       <c r="D60">
-        <v>-0.03427511021260855</v>
+        <v>-0.03346105603179374</v>
       </c>
       <c r="E60">
-        <v>0.169134319625674</v>
+        <v>0.1290883870544088</v>
       </c>
       <c r="F60">
-        <v>0.05319364956785912</v>
+        <v>0.1732570369499961</v>
       </c>
       <c r="G60">
-        <v>0.1737892172609883</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05509839934674511</v>
+      </c>
+      <c r="H60">
+        <v>0.2489487483820529</v>
+      </c>
+      <c r="I60">
+        <v>0.1055868030194778</v>
+      </c>
+      <c r="J60">
+        <v>0.01261793666562078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04577513329329951</v>
+        <v>0.03681085855753106</v>
       </c>
       <c r="C61">
-        <v>0.002324352946455014</v>
+        <v>-0.01646739399048582</v>
       </c>
       <c r="D61">
-        <v>0.009398580126627979</v>
+        <v>-0.003084356939737069</v>
       </c>
       <c r="E61">
-        <v>0.05081509908339984</v>
+        <v>0.01983177127064411</v>
       </c>
       <c r="F61">
-        <v>0.02450105544968794</v>
+        <v>0.04506373026868636</v>
       </c>
       <c r="G61">
-        <v>0.007964384938144522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008741121189346343</v>
+      </c>
+      <c r="H61">
+        <v>-0.007183497839611423</v>
+      </c>
+      <c r="I61">
+        <v>0.03601593863637459</v>
+      </c>
+      <c r="J61">
+        <v>0.01626957282810762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04425682083910681</v>
+        <v>0.02927539592272817</v>
       </c>
       <c r="C63">
-        <v>0.007058560950402655</v>
+        <v>-0.01547353604931145</v>
       </c>
       <c r="D63">
-        <v>-0.01477328855529275</v>
+        <v>-0.01305518416610268</v>
       </c>
       <c r="E63">
-        <v>0.03858060547352804</v>
+        <v>0.01051024582111223</v>
       </c>
       <c r="F63">
-        <v>0.004891492218486636</v>
+        <v>0.0308939875310972</v>
       </c>
       <c r="G63">
-        <v>-0.01504749119198902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004613852341938075</v>
+      </c>
+      <c r="H63">
+        <v>-0.04531764013898183</v>
+      </c>
+      <c r="I63">
+        <v>-0.02926935225229288</v>
+      </c>
+      <c r="J63">
+        <v>-0.01999508321616083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08795057400901594</v>
+        <v>0.06247858569785755</v>
       </c>
       <c r="C64">
-        <v>-0.03369519163533902</v>
+        <v>-0.04221162330992134</v>
       </c>
       <c r="D64">
-        <v>-0.05500784870284301</v>
+        <v>-0.0330309880321827</v>
       </c>
       <c r="E64">
-        <v>0.05905125782289635</v>
+        <v>-0.02001433673122681</v>
       </c>
       <c r="F64">
-        <v>0.09211983153458798</v>
+        <v>0.07416784328751386</v>
       </c>
       <c r="G64">
-        <v>0.06093088847658346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06253628206193856</v>
+      </c>
+      <c r="H64">
+        <v>0.01157953750894776</v>
+      </c>
+      <c r="I64">
+        <v>-0.02466596484714551</v>
+      </c>
+      <c r="J64">
+        <v>-0.07775017850497325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01581587405099089</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004362133254762524</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0004395471949237534</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006029019901778936</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0001700375036743847</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02052896899672609</v>
+      </c>
+      <c r="H65">
+        <v>0.002013137398916517</v>
+      </c>
+      <c r="I65">
+        <v>0.004514189737778296</v>
+      </c>
+      <c r="J65">
+        <v>0.001542649893366385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09483609179353937</v>
+        <v>0.06813194122454952</v>
       </c>
       <c r="C66">
-        <v>-0.01866197166891876</v>
+        <v>-0.04792170215096307</v>
       </c>
       <c r="D66">
-        <v>-0.03732468804186289</v>
+        <v>-0.04304926247841275</v>
       </c>
       <c r="E66">
-        <v>0.08144100980188965</v>
+        <v>0.03231793934660888</v>
       </c>
       <c r="F66">
-        <v>0.04235708342346901</v>
+        <v>0.07466846967050245</v>
       </c>
       <c r="G66">
-        <v>0.009911778200337368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01090099745585117</v>
+      </c>
+      <c r="H66">
+        <v>-0.009683295771557399</v>
+      </c>
+      <c r="I66">
+        <v>0.04682298190115281</v>
+      </c>
+      <c r="J66">
+        <v>-0.03284883861030054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.0655506770333021</v>
+        <v>0.04210929520012265</v>
       </c>
       <c r="C67">
-        <v>0.01717704970391324</v>
+        <v>0.005749847289293543</v>
       </c>
       <c r="D67">
-        <v>-0.01171309584332194</v>
+        <v>-0.007704078485237851</v>
       </c>
       <c r="E67">
-        <v>0.02605766514011932</v>
+        <v>0.01406855090076507</v>
       </c>
       <c r="F67">
-        <v>0.01033546260676321</v>
+        <v>0.03767858135865487</v>
       </c>
       <c r="G67">
-        <v>-0.03584246605929817</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03158958781027855</v>
+      </c>
+      <c r="H67">
+        <v>-0.001475521997362406</v>
+      </c>
+      <c r="I67">
+        <v>0.03509409422143009</v>
+      </c>
+      <c r="J67">
+        <v>0.009996557583177199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.003890808343484833</v>
+        <v>0.04057702780928349</v>
       </c>
       <c r="C68">
-        <v>0.244259727605731</v>
+        <v>0.2329550782377489</v>
       </c>
       <c r="D68">
-        <v>-0.003563901616490487</v>
+        <v>-0.01130597774381909</v>
       </c>
       <c r="E68">
-        <v>0.03359579352690745</v>
+        <v>0.03988221881522731</v>
       </c>
       <c r="F68">
-        <v>0.002221228733687911</v>
+        <v>0.03463053687280637</v>
       </c>
       <c r="G68">
-        <v>0.005773152741860138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004087394903162597</v>
+      </c>
+      <c r="H68">
+        <v>0.02202183226816682</v>
+      </c>
+      <c r="I68">
+        <v>-0.1746508726421156</v>
+      </c>
+      <c r="J68">
+        <v>0.03218244141894456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06877428537269051</v>
+        <v>0.0700232910478593</v>
       </c>
       <c r="C69">
-        <v>-0.009563731065296748</v>
+        <v>-0.01897941814624168</v>
       </c>
       <c r="D69">
-        <v>-0.02130126027429833</v>
+        <v>-0.03048333955088421</v>
       </c>
       <c r="E69">
-        <v>-0.009411907720829478</v>
+        <v>0.007596677819928715</v>
       </c>
       <c r="F69">
-        <v>-0.0008985889954200216</v>
+        <v>0.004406913780839694</v>
       </c>
       <c r="G69">
-        <v>-0.01296781982128266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02149452418214939</v>
+      </c>
+      <c r="H69">
+        <v>-0.04507976243764692</v>
+      </c>
+      <c r="I69">
+        <v>0.001901646328017067</v>
+      </c>
+      <c r="J69">
+        <v>0.005477006397340333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.00634418892195592</v>
+        <v>0.04417550525953329</v>
       </c>
       <c r="C71">
-        <v>0.2648101807461176</v>
+        <v>0.2506677024297127</v>
       </c>
       <c r="D71">
-        <v>-0.005505443466395219</v>
+        <v>0.006740808199194991</v>
       </c>
       <c r="E71">
-        <v>0.06007717187044958</v>
+        <v>0.06467520593185984</v>
       </c>
       <c r="F71">
-        <v>0.01494484641468251</v>
+        <v>0.04613246767756948</v>
       </c>
       <c r="G71">
-        <v>0.08460982261526544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0175218717211407</v>
+      </c>
+      <c r="H71">
+        <v>0.03678526116148263</v>
+      </c>
+      <c r="I71">
+        <v>-0.1455210495625164</v>
+      </c>
+      <c r="J71">
+        <v>0.03669905676814755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1176597614565018</v>
+        <v>0.1202783883372609</v>
       </c>
       <c r="C72">
-        <v>0.01321883370461472</v>
+        <v>-0.008964076209839241</v>
       </c>
       <c r="D72">
-        <v>-0.04868677004768027</v>
+        <v>-0.05529405656367229</v>
       </c>
       <c r="E72">
-        <v>0.09247938016149151</v>
+        <v>0.01793442166572633</v>
       </c>
       <c r="F72">
-        <v>0.007564770380768542</v>
+        <v>0.08467989409594714</v>
       </c>
       <c r="G72">
-        <v>-0.05666570093046037</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04594493198977651</v>
+      </c>
+      <c r="H72">
+        <v>0.001497591434603271</v>
+      </c>
+      <c r="I72">
+        <v>0.0261364580788619</v>
+      </c>
+      <c r="J72">
+        <v>0.1309010700991534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2789658560074819</v>
+        <v>0.2683732389945992</v>
       </c>
       <c r="C73">
-        <v>0.1940247913076384</v>
+        <v>0.1087926615606491</v>
       </c>
       <c r="D73">
-        <v>0.01320337109175159</v>
+        <v>-0.004468165264892697</v>
       </c>
       <c r="E73">
-        <v>0.3051648314164614</v>
+        <v>0.2223949178888806</v>
       </c>
       <c r="F73">
-        <v>0.07091520823291192</v>
+        <v>0.2585201833260273</v>
       </c>
       <c r="G73">
-        <v>0.3822160074986057</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1184840673032712</v>
+      </c>
+      <c r="H73">
+        <v>0.4460892102601332</v>
+      </c>
+      <c r="I73">
+        <v>0.3458631867356503</v>
+      </c>
+      <c r="J73">
+        <v>0.04723613021931541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1586970913944506</v>
+        <v>0.1516938464313001</v>
       </c>
       <c r="C74">
-        <v>0.004309273147451166</v>
+        <v>-0.02307174027554523</v>
       </c>
       <c r="D74">
-        <v>-0.04551243856140263</v>
+        <v>-0.04684937509484278</v>
       </c>
       <c r="E74">
-        <v>-0.00685691601269153</v>
+        <v>-0.01751798809293266</v>
       </c>
       <c r="F74">
-        <v>-0.04845711969381689</v>
+        <v>-0.03670125812128733</v>
       </c>
       <c r="G74">
-        <v>0.03910322365046943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01316064513035271</v>
+      </c>
+      <c r="H74">
+        <v>0.02166025945574233</v>
+      </c>
+      <c r="I74">
+        <v>0.007753846767059737</v>
+      </c>
+      <c r="J74">
+        <v>-0.08359705797371855</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2385246348913973</v>
+        <v>0.2435328884526262</v>
       </c>
       <c r="C75">
-        <v>0.006896173193311921</v>
+        <v>-0.0280786201469504</v>
       </c>
       <c r="D75">
-        <v>-0.05730447792322996</v>
+        <v>-0.1013560844055449</v>
       </c>
       <c r="E75">
-        <v>-0.124889956472316</v>
+        <v>-0.04328156797822721</v>
       </c>
       <c r="F75">
-        <v>-0.0624657528621127</v>
+        <v>-0.1261788769201179</v>
       </c>
       <c r="G75">
-        <v>0.02637382544948528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.007736432780616904</v>
+      </c>
+      <c r="H75">
+        <v>0.01751287142177563</v>
+      </c>
+      <c r="I75">
+        <v>-0.06654864132833588</v>
+      </c>
+      <c r="J75">
+        <v>-0.0955830956603055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2454267128070134</v>
+        <v>0.2673755989522558</v>
       </c>
       <c r="C76">
-        <v>0.01119665845596592</v>
+        <v>-0.02238078990444843</v>
       </c>
       <c r="D76">
-        <v>-0.09624533395350544</v>
+        <v>-0.1260975118440765</v>
       </c>
       <c r="E76">
-        <v>-0.1144595847600497</v>
+        <v>-0.08675587139220547</v>
       </c>
       <c r="F76">
-        <v>-0.07869200591797257</v>
+        <v>-0.1440080441794596</v>
       </c>
       <c r="G76">
-        <v>0.04303323108702441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04241663004304122</v>
+      </c>
+      <c r="H76">
+        <v>0.03337650955846728</v>
+      </c>
+      <c r="I76">
+        <v>0.02060974399742672</v>
+      </c>
+      <c r="J76">
+        <v>-0.1144716716630924</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1225831516695356</v>
+        <v>0.1304471212330953</v>
       </c>
       <c r="C77">
-        <v>-0.01710288953196421</v>
+        <v>-0.05529491768782792</v>
       </c>
       <c r="D77">
-        <v>0.048117449495177</v>
+        <v>0.04358588171148421</v>
       </c>
       <c r="E77">
-        <v>0.1700202174368388</v>
+        <v>0.04663116044231268</v>
       </c>
       <c r="F77">
-        <v>0.01585043386046671</v>
+        <v>0.169245126212048</v>
       </c>
       <c r="G77">
-        <v>-0.1586553828176159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02604461171165773</v>
+      </c>
+      <c r="H77">
+        <v>-0.2001373783770253</v>
+      </c>
+      <c r="I77">
+        <v>-0.166629493312748</v>
+      </c>
+      <c r="J77">
+        <v>-0.1277350327238958</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.0897984715787131</v>
+        <v>0.08779049225136298</v>
       </c>
       <c r="C78">
-        <v>-0.0308928554966337</v>
+        <v>-0.05795006034777844</v>
       </c>
       <c r="D78">
-        <v>0.01568830173008338</v>
+        <v>0.001031552247427913</v>
       </c>
       <c r="E78">
-        <v>0.06841564593408118</v>
+        <v>0.009664945311211915</v>
       </c>
       <c r="F78">
-        <v>0.01709540445272587</v>
+        <v>0.08994052743970615</v>
       </c>
       <c r="G78">
-        <v>-0.002910168673468516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.001951496953757939</v>
+      </c>
+      <c r="H78">
+        <v>-0.02862660997742126</v>
+      </c>
+      <c r="I78">
+        <v>-0.0358301652923131</v>
+      </c>
+      <c r="J78">
+        <v>-0.01724291311552512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06002389573931361</v>
+        <v>0.1133822132434544</v>
       </c>
       <c r="C80">
-        <v>-0.006621776135344935</v>
+        <v>0.1330654564228094</v>
       </c>
       <c r="D80">
-        <v>0.01660988085223666</v>
+        <v>0.2596691196124098</v>
       </c>
       <c r="E80">
-        <v>0.02939072373245835</v>
+        <v>-0.8788460953304473</v>
       </c>
       <c r="F80">
-        <v>-0.03926016545491609</v>
+        <v>0.3056706442311378</v>
       </c>
       <c r="G80">
-        <v>-0.415247857326999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01701493894974925</v>
+      </c>
+      <c r="H80">
+        <v>0.1159300718031023</v>
+      </c>
+      <c r="I80">
+        <v>0.05297139270186334</v>
+      </c>
+      <c r="J80">
+        <v>0.065083288216604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1662660209837917</v>
+        <v>0.177990620713582</v>
       </c>
       <c r="C81">
-        <v>0.006425016160558964</v>
+        <v>-0.01142629516735181</v>
       </c>
       <c r="D81">
-        <v>-0.04471171464530031</v>
+        <v>-0.08369166755999459</v>
       </c>
       <c r="E81">
-        <v>-0.1279355204949616</v>
+        <v>-0.05306639782947958</v>
       </c>
       <c r="F81">
-        <v>-0.09236195033887792</v>
+        <v>-0.1357033766780877</v>
       </c>
       <c r="G81">
-        <v>0.03370808623047745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02127859899558958</v>
+      </c>
+      <c r="H81">
+        <v>0.01437427016330138</v>
+      </c>
+      <c r="I81">
+        <v>-0.03283882044870566</v>
+      </c>
+      <c r="J81">
+        <v>-0.04873390342300676</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08471852823786208</v>
+        <v>0.06427178362495257</v>
       </c>
       <c r="C83">
-        <v>-0.04086619723388635</v>
+        <v>-0.04175825722047967</v>
       </c>
       <c r="D83">
-        <v>0.09233909298918257</v>
+        <v>0.04037995544223977</v>
       </c>
       <c r="E83">
-        <v>0.04078458025102037</v>
+        <v>0.04021445080587323</v>
       </c>
       <c r="F83">
-        <v>0.06040991401317339</v>
+        <v>0.0488719093991689</v>
       </c>
       <c r="G83">
-        <v>-0.01357677157767464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04615183988602897</v>
+      </c>
+      <c r="H83">
+        <v>-0.03563416601997998</v>
+      </c>
+      <c r="I83">
+        <v>-0.02194075645180711</v>
+      </c>
+      <c r="J83">
+        <v>-0.07887295317676296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2369933502504088</v>
+        <v>0.254887281031548</v>
       </c>
       <c r="C85">
-        <v>-0.05583472884742009</v>
+        <v>-0.06014188222311893</v>
       </c>
       <c r="D85">
-        <v>-0.05090496935665069</v>
+        <v>-0.08328863193105492</v>
       </c>
       <c r="E85">
-        <v>-0.1356635491181165</v>
+        <v>-0.08469676033781909</v>
       </c>
       <c r="F85">
-        <v>-0.05688517773729053</v>
+        <v>-0.1386634044274618</v>
       </c>
       <c r="G85">
-        <v>-0.005590463351302947</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.004198139507502781</v>
+      </c>
+      <c r="H85">
+        <v>-0.01719332474066895</v>
+      </c>
+      <c r="I85">
+        <v>-0.04124424563722232</v>
+      </c>
+      <c r="J85">
+        <v>-0.114012079178819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04801364790960436</v>
+        <v>0.02876804778807514</v>
       </c>
       <c r="C86">
-        <v>-0.0407883787473726</v>
+        <v>-0.04692749787689378</v>
       </c>
       <c r="D86">
-        <v>-0.007434371799072719</v>
+        <v>-0.003639409131980312</v>
       </c>
       <c r="E86">
-        <v>0.05221201776484102</v>
+        <v>0.002524296207948823</v>
       </c>
       <c r="F86">
-        <v>0.001789176992410979</v>
+        <v>0.0683739639114348</v>
       </c>
       <c r="G86">
-        <v>-0.0333338581932045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.003338972896154062</v>
+      </c>
+      <c r="H86">
+        <v>-0.05644237441770611</v>
+      </c>
+      <c r="I86">
+        <v>-0.05369758290065853</v>
+      </c>
+      <c r="J86">
+        <v>-0.02067831500404858</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02443438095179184</v>
+        <v>0.03515174303439093</v>
       </c>
       <c r="C87">
-        <v>0.05505976462479351</v>
+        <v>0.02292435491975143</v>
       </c>
       <c r="D87">
-        <v>-0.02176462603706012</v>
+        <v>-0.007054930841044915</v>
       </c>
       <c r="E87">
-        <v>0.06042488638165838</v>
+        <v>0.03518174953328508</v>
       </c>
       <c r="F87">
-        <v>0.05660018640543145</v>
+        <v>0.08978942601463953</v>
       </c>
       <c r="G87">
-        <v>0.1180705039014245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02511912869163764</v>
+      </c>
+      <c r="H87">
+        <v>0.007326182311563023</v>
+      </c>
+      <c r="I87">
+        <v>0.009546789684380188</v>
+      </c>
+      <c r="J87">
+        <v>0.06123161248652277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03815349373998957</v>
+        <v>0.02481222803952236</v>
       </c>
       <c r="C88">
-        <v>-0.02678857617093245</v>
+        <v>-0.01867355782913085</v>
       </c>
       <c r="D88">
-        <v>-0.006855003481465253</v>
+        <v>-0.01039915446121997</v>
       </c>
       <c r="E88">
-        <v>-0.001665358470804004</v>
+        <v>-0.02409329817219764</v>
       </c>
       <c r="F88">
-        <v>-0.01007750717828117</v>
+        <v>0.005784450432982233</v>
       </c>
       <c r="G88">
-        <v>-0.04945495602300087</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02631329303986569</v>
+      </c>
+      <c r="H88">
+        <v>-0.04666125565249136</v>
+      </c>
+      <c r="I88">
+        <v>0.0214159941276905</v>
+      </c>
+      <c r="J88">
+        <v>0.006191612859086079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.008579542789153748</v>
+        <v>0.06078775090408297</v>
       </c>
       <c r="C89">
-        <v>0.4256777843410214</v>
+        <v>0.3939980381422688</v>
       </c>
       <c r="D89">
-        <v>0.09062761652876566</v>
+        <v>0.02737106241626461</v>
       </c>
       <c r="E89">
-        <v>-0.02360706628986711</v>
+        <v>0.08206336961985086</v>
       </c>
       <c r="F89">
-        <v>0.007277894943722246</v>
+        <v>-0.00146060134074666</v>
       </c>
       <c r="G89">
-        <v>-0.03954770513172629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05687399199249515</v>
+      </c>
+      <c r="H89">
+        <v>-0.02288921625359111</v>
+      </c>
+      <c r="I89">
+        <v>-0.286584797851309</v>
+      </c>
+      <c r="J89">
+        <v>-0.01467137983296656</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.001796703076447638</v>
+        <v>0.04230370060604564</v>
       </c>
       <c r="C90">
-        <v>0.3055256234564923</v>
+        <v>0.3316516243826743</v>
       </c>
       <c r="D90">
-        <v>0.01802354598343566</v>
+        <v>0.01421378914139221</v>
       </c>
       <c r="E90">
-        <v>0.03046943035359666</v>
+        <v>0.0350424735070039</v>
       </c>
       <c r="F90">
-        <v>0.01019655627252692</v>
+        <v>0.02654169162149412</v>
       </c>
       <c r="G90">
-        <v>0.06787921923268564</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02236804533928392</v>
+      </c>
+      <c r="H90">
+        <v>0.02627200653269384</v>
+      </c>
+      <c r="I90">
+        <v>-0.2160870820017099</v>
+      </c>
+      <c r="J90">
+        <v>0.02568954482813588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3047912567460452</v>
+        <v>0.3167092967546772</v>
       </c>
       <c r="C91">
-        <v>-0.02775035850752542</v>
+        <v>-0.04832188367553005</v>
       </c>
       <c r="D91">
-        <v>-0.05202771916546668</v>
+        <v>-0.1001497875051022</v>
       </c>
       <c r="E91">
-        <v>-0.2730459301322614</v>
+        <v>-0.1025789365385411</v>
       </c>
       <c r="F91">
-        <v>-0.1613873393616428</v>
+        <v>-0.2702670851227438</v>
       </c>
       <c r="G91">
-        <v>-0.06013901663682471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03732422649361279</v>
+      </c>
+      <c r="H91">
+        <v>0.02376287490421839</v>
+      </c>
+      <c r="I91">
+        <v>-0.08568965283636271</v>
+      </c>
+      <c r="J91">
+        <v>-0.2209710834413456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.01777174315884554</v>
+        <v>0.08352692804516332</v>
       </c>
       <c r="C92">
-        <v>0.442496411081244</v>
+        <v>0.4574372949498272</v>
       </c>
       <c r="D92">
-        <v>0.2051047375963655</v>
+        <v>0.05166337280087983</v>
       </c>
       <c r="E92">
-        <v>-0.1133494374260197</v>
+        <v>-0.001952970030017702</v>
       </c>
       <c r="F92">
-        <v>-0.09756915383073181</v>
+        <v>-0.1536578889120337</v>
       </c>
       <c r="G92">
-        <v>-0.4499454790055275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03642472245432803</v>
+      </c>
+      <c r="H92">
+        <v>-0.5169408143532415</v>
+      </c>
+      <c r="I92">
+        <v>0.664881292006439</v>
+      </c>
+      <c r="J92">
+        <v>-0.1534227282799364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01633468237525728</v>
+        <v>0.04268625960487749</v>
       </c>
       <c r="C93">
-        <v>0.3689732199785561</v>
+        <v>0.4039050007417311</v>
       </c>
       <c r="D93">
-        <v>0.06276775867585335</v>
+        <v>0.03675869441748068</v>
       </c>
       <c r="E93">
-        <v>-0.04473836805756998</v>
+        <v>0.05574819745903534</v>
       </c>
       <c r="F93">
-        <v>-0.01563487069168753</v>
+        <v>-0.03782005820285938</v>
       </c>
       <c r="G93">
-        <v>-0.01807677341032032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03966260580184697</v>
+      </c>
+      <c r="H93">
+        <v>0.03422373543349496</v>
+      </c>
+      <c r="I93">
+        <v>-0.2011326508106119</v>
+      </c>
+      <c r="J93">
+        <v>0.001486358211138781</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3016546028366164</v>
+        <v>0.3236212948703971</v>
       </c>
       <c r="C94">
-        <v>0.02481900590761534</v>
+        <v>-0.01200408364350078</v>
       </c>
       <c r="D94">
-        <v>-0.002288434817481979</v>
+        <v>-0.1506234149018325</v>
       </c>
       <c r="E94">
-        <v>-0.3752481484271869</v>
+        <v>-0.08280697569588263</v>
       </c>
       <c r="F94">
-        <v>-0.4183879446579475</v>
+        <v>-0.3561246144314149</v>
       </c>
       <c r="G94">
-        <v>0.0342550291591054</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1719412958575747</v>
+      </c>
+      <c r="H94">
+        <v>-0.08016554273886241</v>
+      </c>
+      <c r="I94">
+        <v>-0.1059815535461213</v>
+      </c>
+      <c r="J94">
+        <v>0.3302987080109391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1997368481292807</v>
+        <v>0.1365632372936736</v>
       </c>
       <c r="C95">
-        <v>0.02657975832769633</v>
+        <v>-0.06187664510013231</v>
       </c>
       <c r="D95">
-        <v>0.009283890731241825</v>
+        <v>-0.04388996129172602</v>
       </c>
       <c r="E95">
-        <v>-0.428737380724007</v>
+        <v>0.02869499898608894</v>
       </c>
       <c r="F95">
-        <v>0.8308786654229597</v>
+        <v>-0.04513251487827582</v>
       </c>
       <c r="G95">
-        <v>-0.09765026356568682</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9342844201457564</v>
+      </c>
+      <c r="H95">
+        <v>0.06371340681309422</v>
+      </c>
+      <c r="I95">
+        <v>0.06074406021842534</v>
+      </c>
+      <c r="J95">
+        <v>0.2014307391184584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2158624620866298</v>
+        <v>0.203993542528951</v>
       </c>
       <c r="C98">
-        <v>0.1353777794217673</v>
+        <v>0.0760824317043137</v>
       </c>
       <c r="D98">
-        <v>0.02796807098662038</v>
+        <v>0.003974569984520247</v>
       </c>
       <c r="E98">
-        <v>0.1027094900362859</v>
+        <v>0.1484149261198329</v>
       </c>
       <c r="F98">
-        <v>0.03743509990927071</v>
+        <v>0.1184823745695694</v>
       </c>
       <c r="G98">
-        <v>0.2578792148103609</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05151854413057885</v>
+      </c>
+      <c r="H98">
+        <v>0.3107040034962997</v>
+      </c>
+      <c r="I98">
+        <v>0.1996747531336968</v>
+      </c>
+      <c r="J98">
+        <v>-0.008852129603992743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01827696667769177</v>
+        <v>0.0115642765260385</v>
       </c>
       <c r="C101">
-        <v>-0.0176239667741138</v>
+        <v>-0.02835316733197872</v>
       </c>
       <c r="D101">
-        <v>-0.02490725909265655</v>
+        <v>-0.0261537740598041</v>
       </c>
       <c r="E101">
-        <v>0.02926798158760515</v>
+        <v>-0.0005856243741372879</v>
       </c>
       <c r="F101">
-        <v>0.006823335631203069</v>
+        <v>0.06704316444501772</v>
       </c>
       <c r="G101">
-        <v>-0.03938098496500922</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.007927713859376883</v>
+      </c>
+      <c r="H101">
+        <v>-0.1160801476175698</v>
+      </c>
+      <c r="I101">
+        <v>0.009638026845187445</v>
+      </c>
+      <c r="J101">
+        <v>0.1882147719798287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1196566187745822</v>
+        <v>0.1204004387373464</v>
       </c>
       <c r="C102">
-        <v>-0.0112019767025557</v>
+        <v>-0.02860439704178759</v>
       </c>
       <c r="D102">
-        <v>-0.03636072919897413</v>
+        <v>-0.05082985867127014</v>
       </c>
       <c r="E102">
-        <v>-0.08664304781160057</v>
+        <v>-0.05043858558802377</v>
       </c>
       <c r="F102">
-        <v>-0.002774767518044911</v>
+        <v>-0.07638155778631862</v>
       </c>
       <c r="G102">
-        <v>-0.00171555725114254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03107747451492894</v>
+      </c>
+      <c r="H102">
+        <v>0.01391906998852179</v>
+      </c>
+      <c r="I102">
+        <v>-0.0393404190979371</v>
+      </c>
+      <c r="J102">
+        <v>-0.0443152122698479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.02003083376933551</v>
+        <v>0.03180123226872092</v>
       </c>
       <c r="C103">
-        <v>-0.0004696320093619275</v>
+        <v>-0.007361291771969841</v>
       </c>
       <c r="D103">
-        <v>-0.01274274288365283</v>
+        <v>-0.01894212025925857</v>
       </c>
       <c r="E103">
-        <v>-0.0285443339672667</v>
+        <v>-0.02544179543935704</v>
       </c>
       <c r="F103">
-        <v>-0.01679985213411041</v>
+        <v>-0.01458855557229175</v>
       </c>
       <c r="G103">
-        <v>0.009921929550873048</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01309102051678838</v>
+      </c>
+      <c r="H103">
+        <v>-0.01135018730633067</v>
+      </c>
+      <c r="I103">
+        <v>-0.02863174604600472</v>
+      </c>
+      <c r="J103">
+        <v>-0.01242843983155817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
